--- a/docs/matriz-tokens.xlsx
+++ b/docs/matriz-tokens.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="16425" windowHeight="11760" tabRatio="656" firstSheet="2"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="32860" windowHeight="12760" tabRatio="656" firstSheet="2"/>
   </bookViews>
   <sheets>
     <sheet name="Predicitiva Final" sheetId="13" r:id="rId1"/>
@@ -510,8 +510,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1343,273 +1343,274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="2265" ySplit="1755" topLeftCell="B31" activePane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2860" ySplit="2200" topLeftCell="A25" activePane="bottomRight"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="O2" sqref="O2"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="33" customWidth="1"/>
-    <col min="3" max="248" width="11" style="32"/>
+    <col min="1" max="1" width="3.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="33" customWidth="1"/>
+    <col min="3" max="248" width="10.83203125" style="32"/>
     <col min="249" max="249" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="250" max="302" width="11" style="32"/>
-    <col min="303" max="303" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="304" max="504" width="11" style="32"/>
+    <col min="250" max="302" width="10.83203125" style="32"/>
+    <col min="303" max="303" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="304" max="504" width="10.83203125" style="32"/>
     <col min="505" max="505" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="506" max="558" width="11" style="32"/>
-    <col min="559" max="559" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="560" max="760" width="11" style="32"/>
+    <col min="506" max="558" width="10.83203125" style="32"/>
+    <col min="559" max="559" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="560" max="760" width="10.83203125" style="32"/>
     <col min="761" max="761" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="762" max="814" width="11" style="32"/>
-    <col min="815" max="815" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="816" max="1016" width="11" style="32"/>
+    <col min="762" max="814" width="10.83203125" style="32"/>
+    <col min="815" max="815" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="816" max="1016" width="10.83203125" style="32"/>
     <col min="1017" max="1017" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1018" max="1070" width="11" style="32"/>
-    <col min="1071" max="1071" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="1072" max="1272" width="11" style="32"/>
+    <col min="1018" max="1070" width="10.83203125" style="32"/>
+    <col min="1071" max="1071" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1072" max="1272" width="10.83203125" style="32"/>
     <col min="1273" max="1273" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1274" max="1326" width="11" style="32"/>
-    <col min="1327" max="1327" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="1328" max="1528" width="11" style="32"/>
+    <col min="1274" max="1326" width="10.83203125" style="32"/>
+    <col min="1327" max="1327" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1328" max="1528" width="10.83203125" style="32"/>
     <col min="1529" max="1529" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1530" max="1582" width="11" style="32"/>
-    <col min="1583" max="1583" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="1584" max="1784" width="11" style="32"/>
+    <col min="1530" max="1582" width="10.83203125" style="32"/>
+    <col min="1583" max="1583" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1584" max="1784" width="10.83203125" style="32"/>
     <col min="1785" max="1785" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1786" max="1838" width="11" style="32"/>
-    <col min="1839" max="1839" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="1840" max="2040" width="11" style="32"/>
+    <col min="1786" max="1838" width="10.83203125" style="32"/>
+    <col min="1839" max="1839" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1840" max="2040" width="10.83203125" style="32"/>
     <col min="2041" max="2041" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2042" max="2094" width="11" style="32"/>
-    <col min="2095" max="2095" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2096" max="2296" width="11" style="32"/>
+    <col min="2042" max="2094" width="10.83203125" style="32"/>
+    <col min="2095" max="2095" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2096" max="2296" width="10.83203125" style="32"/>
     <col min="2297" max="2297" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2298" max="2350" width="11" style="32"/>
-    <col min="2351" max="2351" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2352" max="2552" width="11" style="32"/>
+    <col min="2298" max="2350" width="10.83203125" style="32"/>
+    <col min="2351" max="2351" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2352" max="2552" width="10.83203125" style="32"/>
     <col min="2553" max="2553" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2554" max="2606" width="11" style="32"/>
-    <col min="2607" max="2607" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2608" max="2808" width="11" style="32"/>
+    <col min="2554" max="2606" width="10.83203125" style="32"/>
+    <col min="2607" max="2607" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2608" max="2808" width="10.83203125" style="32"/>
     <col min="2809" max="2809" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2810" max="2862" width="11" style="32"/>
-    <col min="2863" max="2863" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2864" max="3064" width="11" style="32"/>
+    <col min="2810" max="2862" width="10.83203125" style="32"/>
+    <col min="2863" max="2863" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2864" max="3064" width="10.83203125" style="32"/>
     <col min="3065" max="3065" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3066" max="3118" width="11" style="32"/>
-    <col min="3119" max="3119" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3120" max="3320" width="11" style="32"/>
+    <col min="3066" max="3118" width="10.83203125" style="32"/>
+    <col min="3119" max="3119" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3120" max="3320" width="10.83203125" style="32"/>
     <col min="3321" max="3321" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3322" max="3374" width="11" style="32"/>
-    <col min="3375" max="3375" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3376" max="3576" width="11" style="32"/>
+    <col min="3322" max="3374" width="10.83203125" style="32"/>
+    <col min="3375" max="3375" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3376" max="3576" width="10.83203125" style="32"/>
     <col min="3577" max="3577" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3578" max="3630" width="11" style="32"/>
-    <col min="3631" max="3631" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3632" max="3832" width="11" style="32"/>
+    <col min="3578" max="3630" width="10.83203125" style="32"/>
+    <col min="3631" max="3631" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3632" max="3832" width="10.83203125" style="32"/>
     <col min="3833" max="3833" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3834" max="3886" width="11" style="32"/>
-    <col min="3887" max="3887" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3888" max="4088" width="11" style="32"/>
+    <col min="3834" max="3886" width="10.83203125" style="32"/>
+    <col min="3887" max="3887" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3888" max="4088" width="10.83203125" style="32"/>
     <col min="4089" max="4089" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4090" max="4142" width="11" style="32"/>
-    <col min="4143" max="4143" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4144" max="4344" width="11" style="32"/>
+    <col min="4090" max="4142" width="10.83203125" style="32"/>
+    <col min="4143" max="4143" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4144" max="4344" width="10.83203125" style="32"/>
     <col min="4345" max="4345" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4346" max="4398" width="11" style="32"/>
-    <col min="4399" max="4399" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4400" max="4600" width="11" style="32"/>
+    <col min="4346" max="4398" width="10.83203125" style="32"/>
+    <col min="4399" max="4399" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4400" max="4600" width="10.83203125" style="32"/>
     <col min="4601" max="4601" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4602" max="4654" width="11" style="32"/>
-    <col min="4655" max="4655" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4656" max="4856" width="11" style="32"/>
+    <col min="4602" max="4654" width="10.83203125" style="32"/>
+    <col min="4655" max="4655" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4656" max="4856" width="10.83203125" style="32"/>
     <col min="4857" max="4857" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4858" max="4910" width="11" style="32"/>
-    <col min="4911" max="4911" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4912" max="5112" width="11" style="32"/>
+    <col min="4858" max="4910" width="10.83203125" style="32"/>
+    <col min="4911" max="4911" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4912" max="5112" width="10.83203125" style="32"/>
     <col min="5113" max="5113" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5114" max="5166" width="11" style="32"/>
-    <col min="5167" max="5167" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5168" max="5368" width="11" style="32"/>
+    <col min="5114" max="5166" width="10.83203125" style="32"/>
+    <col min="5167" max="5167" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5168" max="5368" width="10.83203125" style="32"/>
     <col min="5369" max="5369" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5370" max="5422" width="11" style="32"/>
-    <col min="5423" max="5423" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5424" max="5624" width="11" style="32"/>
+    <col min="5370" max="5422" width="10.83203125" style="32"/>
+    <col min="5423" max="5423" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5424" max="5624" width="10.83203125" style="32"/>
     <col min="5625" max="5625" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5626" max="5678" width="11" style="32"/>
-    <col min="5679" max="5679" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5680" max="5880" width="11" style="32"/>
+    <col min="5626" max="5678" width="10.83203125" style="32"/>
+    <col min="5679" max="5679" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5680" max="5880" width="10.83203125" style="32"/>
     <col min="5881" max="5881" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5882" max="5934" width="11" style="32"/>
-    <col min="5935" max="5935" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5936" max="6136" width="11" style="32"/>
+    <col min="5882" max="5934" width="10.83203125" style="32"/>
+    <col min="5935" max="5935" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5936" max="6136" width="10.83203125" style="32"/>
     <col min="6137" max="6137" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6138" max="6190" width="11" style="32"/>
-    <col min="6191" max="6191" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6192" max="6392" width="11" style="32"/>
+    <col min="6138" max="6190" width="10.83203125" style="32"/>
+    <col min="6191" max="6191" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6192" max="6392" width="10.83203125" style="32"/>
     <col min="6393" max="6393" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6394" max="6446" width="11" style="32"/>
-    <col min="6447" max="6447" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6448" max="6648" width="11" style="32"/>
+    <col min="6394" max="6446" width="10.83203125" style="32"/>
+    <col min="6447" max="6447" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6448" max="6648" width="10.83203125" style="32"/>
     <col min="6649" max="6649" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6650" max="6702" width="11" style="32"/>
-    <col min="6703" max="6703" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6704" max="6904" width="11" style="32"/>
+    <col min="6650" max="6702" width="10.83203125" style="32"/>
+    <col min="6703" max="6703" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6704" max="6904" width="10.83203125" style="32"/>
     <col min="6905" max="6905" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6906" max="6958" width="11" style="32"/>
-    <col min="6959" max="6959" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6960" max="7160" width="11" style="32"/>
+    <col min="6906" max="6958" width="10.83203125" style="32"/>
+    <col min="6959" max="6959" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6960" max="7160" width="10.83203125" style="32"/>
     <col min="7161" max="7161" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7162" max="7214" width="11" style="32"/>
-    <col min="7215" max="7215" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7216" max="7416" width="11" style="32"/>
+    <col min="7162" max="7214" width="10.83203125" style="32"/>
+    <col min="7215" max="7215" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7216" max="7416" width="10.83203125" style="32"/>
     <col min="7417" max="7417" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7418" max="7470" width="11" style="32"/>
-    <col min="7471" max="7471" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7472" max="7672" width="11" style="32"/>
+    <col min="7418" max="7470" width="10.83203125" style="32"/>
+    <col min="7471" max="7471" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7472" max="7672" width="10.83203125" style="32"/>
     <col min="7673" max="7673" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7674" max="7726" width="11" style="32"/>
-    <col min="7727" max="7727" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7728" max="7928" width="11" style="32"/>
+    <col min="7674" max="7726" width="10.83203125" style="32"/>
+    <col min="7727" max="7727" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7728" max="7928" width="10.83203125" style="32"/>
     <col min="7929" max="7929" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7930" max="7982" width="11" style="32"/>
-    <col min="7983" max="7983" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7984" max="8184" width="11" style="32"/>
+    <col min="7930" max="7982" width="10.83203125" style="32"/>
+    <col min="7983" max="7983" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7984" max="8184" width="10.83203125" style="32"/>
     <col min="8185" max="8185" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8186" max="8238" width="11" style="32"/>
-    <col min="8239" max="8239" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="8240" max="8440" width="11" style="32"/>
+    <col min="8186" max="8238" width="10.83203125" style="32"/>
+    <col min="8239" max="8239" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8240" max="8440" width="10.83203125" style="32"/>
     <col min="8441" max="8441" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8442" max="8494" width="11" style="32"/>
-    <col min="8495" max="8495" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="8496" max="8696" width="11" style="32"/>
+    <col min="8442" max="8494" width="10.83203125" style="32"/>
+    <col min="8495" max="8495" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8496" max="8696" width="10.83203125" style="32"/>
     <col min="8697" max="8697" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8698" max="8750" width="11" style="32"/>
-    <col min="8751" max="8751" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="8752" max="8952" width="11" style="32"/>
+    <col min="8698" max="8750" width="10.83203125" style="32"/>
+    <col min="8751" max="8751" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8752" max="8952" width="10.83203125" style="32"/>
     <col min="8953" max="8953" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8954" max="9006" width="11" style="32"/>
-    <col min="9007" max="9007" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="9008" max="9208" width="11" style="32"/>
+    <col min="8954" max="9006" width="10.83203125" style="32"/>
+    <col min="9007" max="9007" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9008" max="9208" width="10.83203125" style="32"/>
     <col min="9209" max="9209" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9210" max="9262" width="11" style="32"/>
-    <col min="9263" max="9263" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="9264" max="9464" width="11" style="32"/>
+    <col min="9210" max="9262" width="10.83203125" style="32"/>
+    <col min="9263" max="9263" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9264" max="9464" width="10.83203125" style="32"/>
     <col min="9465" max="9465" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9466" max="9518" width="11" style="32"/>
-    <col min="9519" max="9519" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="9520" max="9720" width="11" style="32"/>
+    <col min="9466" max="9518" width="10.83203125" style="32"/>
+    <col min="9519" max="9519" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9520" max="9720" width="10.83203125" style="32"/>
     <col min="9721" max="9721" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9722" max="9774" width="11" style="32"/>
-    <col min="9775" max="9775" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="9776" max="9976" width="11" style="32"/>
+    <col min="9722" max="9774" width="10.83203125" style="32"/>
+    <col min="9775" max="9775" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9776" max="9976" width="10.83203125" style="32"/>
     <col min="9977" max="9977" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9978" max="10030" width="11" style="32"/>
-    <col min="10031" max="10031" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="10032" max="10232" width="11" style="32"/>
+    <col min="9978" max="10030" width="10.83203125" style="32"/>
+    <col min="10031" max="10031" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10032" max="10232" width="10.83203125" style="32"/>
     <col min="10233" max="10233" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10234" max="10286" width="11" style="32"/>
-    <col min="10287" max="10287" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="10288" max="10488" width="11" style="32"/>
+    <col min="10234" max="10286" width="10.83203125" style="32"/>
+    <col min="10287" max="10287" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10288" max="10488" width="10.83203125" style="32"/>
     <col min="10489" max="10489" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10490" max="10542" width="11" style="32"/>
-    <col min="10543" max="10543" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="10544" max="10744" width="11" style="32"/>
+    <col min="10490" max="10542" width="10.83203125" style="32"/>
+    <col min="10543" max="10543" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10544" max="10744" width="10.83203125" style="32"/>
     <col min="10745" max="10745" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10746" max="10798" width="11" style="32"/>
-    <col min="10799" max="10799" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="10800" max="11000" width="11" style="32"/>
+    <col min="10746" max="10798" width="10.83203125" style="32"/>
+    <col min="10799" max="10799" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10800" max="11000" width="10.83203125" style="32"/>
     <col min="11001" max="11001" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11002" max="11054" width="11" style="32"/>
-    <col min="11055" max="11055" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="11056" max="11256" width="11" style="32"/>
+    <col min="11002" max="11054" width="10.83203125" style="32"/>
+    <col min="11055" max="11055" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11056" max="11256" width="10.83203125" style="32"/>
     <col min="11257" max="11257" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11258" max="11310" width="11" style="32"/>
-    <col min="11311" max="11311" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="11312" max="11512" width="11" style="32"/>
+    <col min="11258" max="11310" width="10.83203125" style="32"/>
+    <col min="11311" max="11311" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11312" max="11512" width="10.83203125" style="32"/>
     <col min="11513" max="11513" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11514" max="11566" width="11" style="32"/>
-    <col min="11567" max="11567" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="11568" max="11768" width="11" style="32"/>
+    <col min="11514" max="11566" width="10.83203125" style="32"/>
+    <col min="11567" max="11567" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11568" max="11768" width="10.83203125" style="32"/>
     <col min="11769" max="11769" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11770" max="11822" width="11" style="32"/>
-    <col min="11823" max="11823" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="11824" max="12024" width="11" style="32"/>
+    <col min="11770" max="11822" width="10.83203125" style="32"/>
+    <col min="11823" max="11823" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11824" max="12024" width="10.83203125" style="32"/>
     <col min="12025" max="12025" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12026" max="12078" width="11" style="32"/>
-    <col min="12079" max="12079" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="12080" max="12280" width="11" style="32"/>
+    <col min="12026" max="12078" width="10.83203125" style="32"/>
+    <col min="12079" max="12079" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12080" max="12280" width="10.83203125" style="32"/>
     <col min="12281" max="12281" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12282" max="12334" width="11" style="32"/>
-    <col min="12335" max="12335" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="12336" max="12536" width="11" style="32"/>
+    <col min="12282" max="12334" width="10.83203125" style="32"/>
+    <col min="12335" max="12335" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12336" max="12536" width="10.83203125" style="32"/>
     <col min="12537" max="12537" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12538" max="12590" width="11" style="32"/>
-    <col min="12591" max="12591" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="12592" max="12792" width="11" style="32"/>
+    <col min="12538" max="12590" width="10.83203125" style="32"/>
+    <col min="12591" max="12591" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12592" max="12792" width="10.83203125" style="32"/>
     <col min="12793" max="12793" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12794" max="12846" width="11" style="32"/>
-    <col min="12847" max="12847" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="12848" max="13048" width="11" style="32"/>
+    <col min="12794" max="12846" width="10.83203125" style="32"/>
+    <col min="12847" max="12847" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12848" max="13048" width="10.83203125" style="32"/>
     <col min="13049" max="13049" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13050" max="13102" width="11" style="32"/>
-    <col min="13103" max="13103" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="13104" max="13304" width="11" style="32"/>
+    <col min="13050" max="13102" width="10.83203125" style="32"/>
+    <col min="13103" max="13103" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13104" max="13304" width="10.83203125" style="32"/>
     <col min="13305" max="13305" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13306" max="13358" width="11" style="32"/>
-    <col min="13359" max="13359" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="13360" max="13560" width="11" style="32"/>
+    <col min="13306" max="13358" width="10.83203125" style="32"/>
+    <col min="13359" max="13359" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13360" max="13560" width="10.83203125" style="32"/>
     <col min="13561" max="13561" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13562" max="13614" width="11" style="32"/>
-    <col min="13615" max="13615" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="13616" max="13816" width="11" style="32"/>
+    <col min="13562" max="13614" width="10.83203125" style="32"/>
+    <col min="13615" max="13615" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13616" max="13816" width="10.83203125" style="32"/>
     <col min="13817" max="13817" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13818" max="13870" width="11" style="32"/>
-    <col min="13871" max="13871" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="13872" max="14072" width="11" style="32"/>
+    <col min="13818" max="13870" width="10.83203125" style="32"/>
+    <col min="13871" max="13871" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13872" max="14072" width="10.83203125" style="32"/>
     <col min="14073" max="14073" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14074" max="14126" width="11" style="32"/>
-    <col min="14127" max="14127" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="14128" max="14328" width="11" style="32"/>
+    <col min="14074" max="14126" width="10.83203125" style="32"/>
+    <col min="14127" max="14127" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14128" max="14328" width="10.83203125" style="32"/>
     <col min="14329" max="14329" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14330" max="14382" width="11" style="32"/>
-    <col min="14383" max="14383" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="14384" max="14584" width="11" style="32"/>
+    <col min="14330" max="14382" width="10.83203125" style="32"/>
+    <col min="14383" max="14383" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14384" max="14584" width="10.83203125" style="32"/>
     <col min="14585" max="14585" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14586" max="14638" width="11" style="32"/>
-    <col min="14639" max="14639" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="14640" max="14840" width="11" style="32"/>
+    <col min="14586" max="14638" width="10.83203125" style="32"/>
+    <col min="14639" max="14639" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14640" max="14840" width="10.83203125" style="32"/>
     <col min="14841" max="14841" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14842" max="14894" width="11" style="32"/>
-    <col min="14895" max="14895" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="14896" max="15096" width="11" style="32"/>
+    <col min="14842" max="14894" width="10.83203125" style="32"/>
+    <col min="14895" max="14895" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14896" max="15096" width="10.83203125" style="32"/>
     <col min="15097" max="15097" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15098" max="15150" width="11" style="32"/>
-    <col min="15151" max="15151" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="15152" max="15352" width="11" style="32"/>
+    <col min="15098" max="15150" width="10.83203125" style="32"/>
+    <col min="15151" max="15151" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15152" max="15352" width="10.83203125" style="32"/>
     <col min="15353" max="15353" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15354" max="15406" width="11" style="32"/>
-    <col min="15407" max="15407" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="15408" max="15608" width="11" style="32"/>
+    <col min="15354" max="15406" width="10.83203125" style="32"/>
+    <col min="15407" max="15407" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15408" max="15608" width="10.83203125" style="32"/>
     <col min="15609" max="15609" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15610" max="15662" width="11" style="32"/>
-    <col min="15663" max="15663" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="15664" max="15864" width="11" style="32"/>
+    <col min="15610" max="15662" width="10.83203125" style="32"/>
+    <col min="15663" max="15663" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15664" max="15864" width="10.83203125" style="32"/>
     <col min="15865" max="15865" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15866" max="15918" width="11" style="32"/>
-    <col min="15919" max="15919" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="15920" max="16120" width="11" style="32"/>
+    <col min="15866" max="15918" width="10.83203125" style="32"/>
+    <col min="15919" max="15919" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15920" max="16120" width="10.83203125" style="32"/>
     <col min="16121" max="16121" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="16122" max="16174" width="11" style="32"/>
-    <col min="16175" max="16175" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="16176" max="16384" width="11" style="32"/>
+    <col min="16122" max="16174" width="10.83203125" style="32"/>
+    <col min="16175" max="16175" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="16176" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
@@ -3956,7 +3957,7 @@
         <v>600</v>
       </c>
       <c r="F17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="G17" s="31">
         <v>600</v>
@@ -3968,7 +3969,7 @@
         <v>28</v>
       </c>
       <c r="J17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="K17" s="31">
         <v>29</v>
@@ -5866,7 +5867,7 @@
         <v>600</v>
       </c>
       <c r="J30" s="31">
-        <v>600</v>
+        <v>47</v>
       </c>
       <c r="K30" s="31">
         <v>600</v>
@@ -6158,7 +6159,7 @@
         <v>600</v>
       </c>
       <c r="J32" s="31">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="K32" s="31">
         <v>600</v>
@@ -6742,7 +6743,7 @@
         <v>600</v>
       </c>
       <c r="J36" s="31">
-        <v>600</v>
+        <v>56</v>
       </c>
       <c r="K36" s="31">
         <v>600</v>
@@ -7180,7 +7181,7 @@
         <v>600</v>
       </c>
       <c r="J39" s="31">
-        <v>600</v>
+        <v>66</v>
       </c>
       <c r="K39" s="31">
         <v>64</v>
@@ -7472,7 +7473,7 @@
         <v>600</v>
       </c>
       <c r="J41" s="31">
-        <v>600</v>
+        <v>71</v>
       </c>
       <c r="K41" s="31">
         <v>71</v>
@@ -7738,276 +7739,281 @@
     <row r="43" spans="1:48" ht="24.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV42"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="AH101" sqref="AH101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="33" customWidth="1"/>
-    <col min="3" max="248" width="10.875" style="32"/>
+    <col min="1" max="1" width="3.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="33" customWidth="1"/>
+    <col min="3" max="248" width="10.83203125" style="32"/>
     <col min="249" max="249" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="250" max="302" width="10.875" style="32"/>
-    <col min="303" max="303" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="304" max="504" width="10.875" style="32"/>
+    <col min="250" max="302" width="10.83203125" style="32"/>
+    <col min="303" max="303" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="304" max="504" width="10.83203125" style="32"/>
     <col min="505" max="505" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="506" max="558" width="10.875" style="32"/>
-    <col min="559" max="559" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="560" max="760" width="10.875" style="32"/>
+    <col min="506" max="558" width="10.83203125" style="32"/>
+    <col min="559" max="559" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="560" max="760" width="10.83203125" style="32"/>
     <col min="761" max="761" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="762" max="814" width="10.875" style="32"/>
-    <col min="815" max="815" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="816" max="1016" width="10.875" style="32"/>
+    <col min="762" max="814" width="10.83203125" style="32"/>
+    <col min="815" max="815" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="816" max="1016" width="10.83203125" style="32"/>
     <col min="1017" max="1017" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1018" max="1070" width="10.875" style="32"/>
-    <col min="1071" max="1071" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="1072" max="1272" width="10.875" style="32"/>
+    <col min="1018" max="1070" width="10.83203125" style="32"/>
+    <col min="1071" max="1071" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1072" max="1272" width="10.83203125" style="32"/>
     <col min="1273" max="1273" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1274" max="1326" width="10.875" style="32"/>
-    <col min="1327" max="1327" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="1328" max="1528" width="10.875" style="32"/>
+    <col min="1274" max="1326" width="10.83203125" style="32"/>
+    <col min="1327" max="1327" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1328" max="1528" width="10.83203125" style="32"/>
     <col min="1529" max="1529" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1530" max="1582" width="10.875" style="32"/>
-    <col min="1583" max="1583" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="1584" max="1784" width="10.875" style="32"/>
+    <col min="1530" max="1582" width="10.83203125" style="32"/>
+    <col min="1583" max="1583" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1584" max="1784" width="10.83203125" style="32"/>
     <col min="1785" max="1785" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1786" max="1838" width="10.875" style="32"/>
-    <col min="1839" max="1839" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="1840" max="2040" width="10.875" style="32"/>
+    <col min="1786" max="1838" width="10.83203125" style="32"/>
+    <col min="1839" max="1839" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1840" max="2040" width="10.83203125" style="32"/>
     <col min="2041" max="2041" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2042" max="2094" width="10.875" style="32"/>
-    <col min="2095" max="2095" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2096" max="2296" width="10.875" style="32"/>
+    <col min="2042" max="2094" width="10.83203125" style="32"/>
+    <col min="2095" max="2095" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2096" max="2296" width="10.83203125" style="32"/>
     <col min="2297" max="2297" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2298" max="2350" width="10.875" style="32"/>
-    <col min="2351" max="2351" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2352" max="2552" width="10.875" style="32"/>
+    <col min="2298" max="2350" width="10.83203125" style="32"/>
+    <col min="2351" max="2351" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2352" max="2552" width="10.83203125" style="32"/>
     <col min="2553" max="2553" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2554" max="2606" width="10.875" style="32"/>
-    <col min="2607" max="2607" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2608" max="2808" width="10.875" style="32"/>
+    <col min="2554" max="2606" width="10.83203125" style="32"/>
+    <col min="2607" max="2607" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2608" max="2808" width="10.83203125" style="32"/>
     <col min="2809" max="2809" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2810" max="2862" width="10.875" style="32"/>
-    <col min="2863" max="2863" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2864" max="3064" width="10.875" style="32"/>
+    <col min="2810" max="2862" width="10.83203125" style="32"/>
+    <col min="2863" max="2863" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2864" max="3064" width="10.83203125" style="32"/>
     <col min="3065" max="3065" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3066" max="3118" width="10.875" style="32"/>
-    <col min="3119" max="3119" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3120" max="3320" width="10.875" style="32"/>
+    <col min="3066" max="3118" width="10.83203125" style="32"/>
+    <col min="3119" max="3119" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3120" max="3320" width="10.83203125" style="32"/>
     <col min="3321" max="3321" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3322" max="3374" width="10.875" style="32"/>
-    <col min="3375" max="3375" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3376" max="3576" width="10.875" style="32"/>
+    <col min="3322" max="3374" width="10.83203125" style="32"/>
+    <col min="3375" max="3375" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3376" max="3576" width="10.83203125" style="32"/>
     <col min="3577" max="3577" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3578" max="3630" width="10.875" style="32"/>
-    <col min="3631" max="3631" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3632" max="3832" width="10.875" style="32"/>
+    <col min="3578" max="3630" width="10.83203125" style="32"/>
+    <col min="3631" max="3631" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3632" max="3832" width="10.83203125" style="32"/>
     <col min="3833" max="3833" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3834" max="3886" width="10.875" style="32"/>
-    <col min="3887" max="3887" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3888" max="4088" width="10.875" style="32"/>
+    <col min="3834" max="3886" width="10.83203125" style="32"/>
+    <col min="3887" max="3887" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3888" max="4088" width="10.83203125" style="32"/>
     <col min="4089" max="4089" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4090" max="4142" width="10.875" style="32"/>
-    <col min="4143" max="4143" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4144" max="4344" width="10.875" style="32"/>
+    <col min="4090" max="4142" width="10.83203125" style="32"/>
+    <col min="4143" max="4143" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4144" max="4344" width="10.83203125" style="32"/>
     <col min="4345" max="4345" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4346" max="4398" width="10.875" style="32"/>
-    <col min="4399" max="4399" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4400" max="4600" width="10.875" style="32"/>
+    <col min="4346" max="4398" width="10.83203125" style="32"/>
+    <col min="4399" max="4399" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4400" max="4600" width="10.83203125" style="32"/>
     <col min="4601" max="4601" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4602" max="4654" width="10.875" style="32"/>
-    <col min="4655" max="4655" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4656" max="4856" width="10.875" style="32"/>
+    <col min="4602" max="4654" width="10.83203125" style="32"/>
+    <col min="4655" max="4655" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4656" max="4856" width="10.83203125" style="32"/>
     <col min="4857" max="4857" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4858" max="4910" width="10.875" style="32"/>
-    <col min="4911" max="4911" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4912" max="5112" width="10.875" style="32"/>
+    <col min="4858" max="4910" width="10.83203125" style="32"/>
+    <col min="4911" max="4911" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4912" max="5112" width="10.83203125" style="32"/>
     <col min="5113" max="5113" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5114" max="5166" width="10.875" style="32"/>
-    <col min="5167" max="5167" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5168" max="5368" width="10.875" style="32"/>
+    <col min="5114" max="5166" width="10.83203125" style="32"/>
+    <col min="5167" max="5167" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5168" max="5368" width="10.83203125" style="32"/>
     <col min="5369" max="5369" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5370" max="5422" width="10.875" style="32"/>
-    <col min="5423" max="5423" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5424" max="5624" width="10.875" style="32"/>
+    <col min="5370" max="5422" width="10.83203125" style="32"/>
+    <col min="5423" max="5423" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5424" max="5624" width="10.83203125" style="32"/>
     <col min="5625" max="5625" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5626" max="5678" width="10.875" style="32"/>
-    <col min="5679" max="5679" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5680" max="5880" width="10.875" style="32"/>
+    <col min="5626" max="5678" width="10.83203125" style="32"/>
+    <col min="5679" max="5679" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5680" max="5880" width="10.83203125" style="32"/>
     <col min="5881" max="5881" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5882" max="5934" width="10.875" style="32"/>
-    <col min="5935" max="5935" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5936" max="6136" width="10.875" style="32"/>
+    <col min="5882" max="5934" width="10.83203125" style="32"/>
+    <col min="5935" max="5935" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5936" max="6136" width="10.83203125" style="32"/>
     <col min="6137" max="6137" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6138" max="6190" width="10.875" style="32"/>
-    <col min="6191" max="6191" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6192" max="6392" width="10.875" style="32"/>
+    <col min="6138" max="6190" width="10.83203125" style="32"/>
+    <col min="6191" max="6191" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6192" max="6392" width="10.83203125" style="32"/>
     <col min="6393" max="6393" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6394" max="6446" width="10.875" style="32"/>
-    <col min="6447" max="6447" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6448" max="6648" width="10.875" style="32"/>
+    <col min="6394" max="6446" width="10.83203125" style="32"/>
+    <col min="6447" max="6447" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6448" max="6648" width="10.83203125" style="32"/>
     <col min="6649" max="6649" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6650" max="6702" width="10.875" style="32"/>
-    <col min="6703" max="6703" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6704" max="6904" width="10.875" style="32"/>
+    <col min="6650" max="6702" width="10.83203125" style="32"/>
+    <col min="6703" max="6703" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6704" max="6904" width="10.83203125" style="32"/>
     <col min="6905" max="6905" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6906" max="6958" width="10.875" style="32"/>
-    <col min="6959" max="6959" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6960" max="7160" width="10.875" style="32"/>
+    <col min="6906" max="6958" width="10.83203125" style="32"/>
+    <col min="6959" max="6959" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6960" max="7160" width="10.83203125" style="32"/>
     <col min="7161" max="7161" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7162" max="7214" width="10.875" style="32"/>
-    <col min="7215" max="7215" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7216" max="7416" width="10.875" style="32"/>
+    <col min="7162" max="7214" width="10.83203125" style="32"/>
+    <col min="7215" max="7215" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7216" max="7416" width="10.83203125" style="32"/>
     <col min="7417" max="7417" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7418" max="7470" width="10.875" style="32"/>
-    <col min="7471" max="7471" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7472" max="7672" width="10.875" style="32"/>
+    <col min="7418" max="7470" width="10.83203125" style="32"/>
+    <col min="7471" max="7471" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7472" max="7672" width="10.83203125" style="32"/>
     <col min="7673" max="7673" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7674" max="7726" width="10.875" style="32"/>
-    <col min="7727" max="7727" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7728" max="7928" width="10.875" style="32"/>
+    <col min="7674" max="7726" width="10.83203125" style="32"/>
+    <col min="7727" max="7727" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7728" max="7928" width="10.83203125" style="32"/>
     <col min="7929" max="7929" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7930" max="7982" width="10.875" style="32"/>
-    <col min="7983" max="7983" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7984" max="8184" width="10.875" style="32"/>
+    <col min="7930" max="7982" width="10.83203125" style="32"/>
+    <col min="7983" max="7983" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7984" max="8184" width="10.83203125" style="32"/>
     <col min="8185" max="8185" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8186" max="8238" width="10.875" style="32"/>
-    <col min="8239" max="8239" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="8240" max="8440" width="10.875" style="32"/>
+    <col min="8186" max="8238" width="10.83203125" style="32"/>
+    <col min="8239" max="8239" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8240" max="8440" width="10.83203125" style="32"/>
     <col min="8441" max="8441" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8442" max="8494" width="10.875" style="32"/>
-    <col min="8495" max="8495" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="8496" max="8696" width="10.875" style="32"/>
+    <col min="8442" max="8494" width="10.83203125" style="32"/>
+    <col min="8495" max="8495" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8496" max="8696" width="10.83203125" style="32"/>
     <col min="8697" max="8697" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8698" max="8750" width="10.875" style="32"/>
-    <col min="8751" max="8751" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="8752" max="8952" width="10.875" style="32"/>
+    <col min="8698" max="8750" width="10.83203125" style="32"/>
+    <col min="8751" max="8751" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8752" max="8952" width="10.83203125" style="32"/>
     <col min="8953" max="8953" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8954" max="9006" width="10.875" style="32"/>
-    <col min="9007" max="9007" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="9008" max="9208" width="10.875" style="32"/>
+    <col min="8954" max="9006" width="10.83203125" style="32"/>
+    <col min="9007" max="9007" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9008" max="9208" width="10.83203125" style="32"/>
     <col min="9209" max="9209" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9210" max="9262" width="10.875" style="32"/>
-    <col min="9263" max="9263" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="9264" max="9464" width="10.875" style="32"/>
+    <col min="9210" max="9262" width="10.83203125" style="32"/>
+    <col min="9263" max="9263" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9264" max="9464" width="10.83203125" style="32"/>
     <col min="9465" max="9465" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9466" max="9518" width="10.875" style="32"/>
-    <col min="9519" max="9519" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="9520" max="9720" width="10.875" style="32"/>
+    <col min="9466" max="9518" width="10.83203125" style="32"/>
+    <col min="9519" max="9519" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9520" max="9720" width="10.83203125" style="32"/>
     <col min="9721" max="9721" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9722" max="9774" width="10.875" style="32"/>
-    <col min="9775" max="9775" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="9776" max="9976" width="10.875" style="32"/>
+    <col min="9722" max="9774" width="10.83203125" style="32"/>
+    <col min="9775" max="9775" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9776" max="9976" width="10.83203125" style="32"/>
     <col min="9977" max="9977" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9978" max="10030" width="10.875" style="32"/>
-    <col min="10031" max="10031" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="10032" max="10232" width="10.875" style="32"/>
+    <col min="9978" max="10030" width="10.83203125" style="32"/>
+    <col min="10031" max="10031" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10032" max="10232" width="10.83203125" style="32"/>
     <col min="10233" max="10233" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10234" max="10286" width="10.875" style="32"/>
-    <col min="10287" max="10287" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="10288" max="10488" width="10.875" style="32"/>
+    <col min="10234" max="10286" width="10.83203125" style="32"/>
+    <col min="10287" max="10287" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10288" max="10488" width="10.83203125" style="32"/>
     <col min="10489" max="10489" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10490" max="10542" width="10.875" style="32"/>
-    <col min="10543" max="10543" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="10544" max="10744" width="10.875" style="32"/>
+    <col min="10490" max="10542" width="10.83203125" style="32"/>
+    <col min="10543" max="10543" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10544" max="10744" width="10.83203125" style="32"/>
     <col min="10745" max="10745" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10746" max="10798" width="10.875" style="32"/>
-    <col min="10799" max="10799" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="10800" max="11000" width="10.875" style="32"/>
+    <col min="10746" max="10798" width="10.83203125" style="32"/>
+    <col min="10799" max="10799" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10800" max="11000" width="10.83203125" style="32"/>
     <col min="11001" max="11001" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11002" max="11054" width="10.875" style="32"/>
-    <col min="11055" max="11055" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="11056" max="11256" width="10.875" style="32"/>
+    <col min="11002" max="11054" width="10.83203125" style="32"/>
+    <col min="11055" max="11055" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11056" max="11256" width="10.83203125" style="32"/>
     <col min="11257" max="11257" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11258" max="11310" width="10.875" style="32"/>
-    <col min="11311" max="11311" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="11312" max="11512" width="10.875" style="32"/>
+    <col min="11258" max="11310" width="10.83203125" style="32"/>
+    <col min="11311" max="11311" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11312" max="11512" width="10.83203125" style="32"/>
     <col min="11513" max="11513" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11514" max="11566" width="10.875" style="32"/>
-    <col min="11567" max="11567" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="11568" max="11768" width="10.875" style="32"/>
+    <col min="11514" max="11566" width="10.83203125" style="32"/>
+    <col min="11567" max="11567" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11568" max="11768" width="10.83203125" style="32"/>
     <col min="11769" max="11769" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11770" max="11822" width="10.875" style="32"/>
-    <col min="11823" max="11823" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="11824" max="12024" width="10.875" style="32"/>
+    <col min="11770" max="11822" width="10.83203125" style="32"/>
+    <col min="11823" max="11823" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11824" max="12024" width="10.83203125" style="32"/>
     <col min="12025" max="12025" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12026" max="12078" width="10.875" style="32"/>
-    <col min="12079" max="12079" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="12080" max="12280" width="10.875" style="32"/>
+    <col min="12026" max="12078" width="10.83203125" style="32"/>
+    <col min="12079" max="12079" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12080" max="12280" width="10.83203125" style="32"/>
     <col min="12281" max="12281" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12282" max="12334" width="10.875" style="32"/>
-    <col min="12335" max="12335" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="12336" max="12536" width="10.875" style="32"/>
+    <col min="12282" max="12334" width="10.83203125" style="32"/>
+    <col min="12335" max="12335" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12336" max="12536" width="10.83203125" style="32"/>
     <col min="12537" max="12537" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12538" max="12590" width="10.875" style="32"/>
-    <col min="12591" max="12591" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="12592" max="12792" width="10.875" style="32"/>
+    <col min="12538" max="12590" width="10.83203125" style="32"/>
+    <col min="12591" max="12591" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12592" max="12792" width="10.83203125" style="32"/>
     <col min="12793" max="12793" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12794" max="12846" width="10.875" style="32"/>
-    <col min="12847" max="12847" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="12848" max="13048" width="10.875" style="32"/>
+    <col min="12794" max="12846" width="10.83203125" style="32"/>
+    <col min="12847" max="12847" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12848" max="13048" width="10.83203125" style="32"/>
     <col min="13049" max="13049" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13050" max="13102" width="10.875" style="32"/>
-    <col min="13103" max="13103" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="13104" max="13304" width="10.875" style="32"/>
+    <col min="13050" max="13102" width="10.83203125" style="32"/>
+    <col min="13103" max="13103" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13104" max="13304" width="10.83203125" style="32"/>
     <col min="13305" max="13305" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13306" max="13358" width="10.875" style="32"/>
-    <col min="13359" max="13359" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="13360" max="13560" width="10.875" style="32"/>
+    <col min="13306" max="13358" width="10.83203125" style="32"/>
+    <col min="13359" max="13359" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13360" max="13560" width="10.83203125" style="32"/>
     <col min="13561" max="13561" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13562" max="13614" width="10.875" style="32"/>
-    <col min="13615" max="13615" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="13616" max="13816" width="10.875" style="32"/>
+    <col min="13562" max="13614" width="10.83203125" style="32"/>
+    <col min="13615" max="13615" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13616" max="13816" width="10.83203125" style="32"/>
     <col min="13817" max="13817" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13818" max="13870" width="10.875" style="32"/>
-    <col min="13871" max="13871" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="13872" max="14072" width="10.875" style="32"/>
+    <col min="13818" max="13870" width="10.83203125" style="32"/>
+    <col min="13871" max="13871" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13872" max="14072" width="10.83203125" style="32"/>
     <col min="14073" max="14073" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14074" max="14126" width="10.875" style="32"/>
-    <col min="14127" max="14127" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="14128" max="14328" width="10.875" style="32"/>
+    <col min="14074" max="14126" width="10.83203125" style="32"/>
+    <col min="14127" max="14127" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14128" max="14328" width="10.83203125" style="32"/>
     <col min="14329" max="14329" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14330" max="14382" width="10.875" style="32"/>
-    <col min="14383" max="14383" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="14384" max="14584" width="10.875" style="32"/>
+    <col min="14330" max="14382" width="10.83203125" style="32"/>
+    <col min="14383" max="14383" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14384" max="14584" width="10.83203125" style="32"/>
     <col min="14585" max="14585" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14586" max="14638" width="10.875" style="32"/>
-    <col min="14639" max="14639" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="14640" max="14840" width="10.875" style="32"/>
+    <col min="14586" max="14638" width="10.83203125" style="32"/>
+    <col min="14639" max="14639" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14640" max="14840" width="10.83203125" style="32"/>
     <col min="14841" max="14841" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14842" max="14894" width="10.875" style="32"/>
-    <col min="14895" max="14895" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="14896" max="15096" width="10.875" style="32"/>
+    <col min="14842" max="14894" width="10.83203125" style="32"/>
+    <col min="14895" max="14895" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="14896" max="15096" width="10.83203125" style="32"/>
     <col min="15097" max="15097" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15098" max="15150" width="10.875" style="32"/>
-    <col min="15151" max="15151" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="15152" max="15352" width="10.875" style="32"/>
+    <col min="15098" max="15150" width="10.83203125" style="32"/>
+    <col min="15151" max="15151" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15152" max="15352" width="10.83203125" style="32"/>
     <col min="15353" max="15353" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15354" max="15406" width="10.875" style="32"/>
-    <col min="15407" max="15407" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="15408" max="15608" width="10.875" style="32"/>
+    <col min="15354" max="15406" width="10.83203125" style="32"/>
+    <col min="15407" max="15407" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15408" max="15608" width="10.83203125" style="32"/>
     <col min="15609" max="15609" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15610" max="15662" width="10.875" style="32"/>
-    <col min="15663" max="15663" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="15664" max="15864" width="10.875" style="32"/>
+    <col min="15610" max="15662" width="10.83203125" style="32"/>
+    <col min="15663" max="15663" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15664" max="15864" width="10.83203125" style="32"/>
     <col min="15865" max="15865" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15866" max="15918" width="10.875" style="32"/>
-    <col min="15919" max="15919" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="15920" max="16120" width="10.875" style="32"/>
+    <col min="15866" max="15918" width="10.83203125" style="32"/>
+    <col min="15919" max="15919" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="15920" max="16120" width="10.83203125" style="32"/>
     <col min="16121" max="16121" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="16122" max="16174" width="10.875" style="32"/>
-    <col min="16175" max="16175" width="10.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="16176" max="16384" width="10.875" style="32"/>
+    <col min="16122" max="16174" width="10.83203125" style="32"/>
+    <col min="16175" max="16175" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="16176" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="30" customFormat="1" ht="69" customHeight="1">
@@ -10684,8 +10690,8 @@
     <row r="42" spans="1:48" ht="24.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10695,21 +10701,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="4.33203125" customWidth="1"/>
     <col min="28" max="28" width="5" customWidth="1"/>
-    <col min="29" max="29" width="4.375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4.375" customWidth="1"/>
+    <col min="29" max="29" width="4.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
     <col min="31" max="31" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13051,25 +13057,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="30" width="4.625" customWidth="1"/>
-    <col min="31" max="31" width="9.125" customWidth="1"/>
-    <col min="32" max="33" width="5.875" customWidth="1"/>
-    <col min="34" max="34" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="30" width="4.6640625" customWidth="1"/>
+    <col min="31" max="31" width="9.1640625" customWidth="1"/>
+    <col min="32" max="33" width="5.83203125" customWidth="1"/>
+    <col min="34" max="34" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="6" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -16957,19 +16963,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="29" width="4.625" customWidth="1"/>
-    <col min="30" max="30" width="9.125" customWidth="1"/>
-    <col min="31" max="31" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="29" width="4.6640625" customWidth="1"/>
+    <col min="30" max="30" width="9.1640625" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -18541,14 +18547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
@@ -18616,18 +18622,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.375" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/docs/matriz-tokens.xlsx
+++ b/docs/matriz-tokens.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="32860" windowHeight="12760" tabRatio="656" firstSheet="2"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="20730" windowHeight="11760" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="Predicitiva Final" sheetId="13" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="161">
   <si>
     <t>l</t>
   </si>
@@ -506,12 +506,15 @@
   <si>
     <t>string</t>
   </si>
+  <si>
+    <t>Univ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1343,274 +1346,274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2860" ySplit="2200" topLeftCell="A25" activePane="bottomRight"/>
+      <pane xSplit="2865" ySplit="2205" topLeftCell="C13" activePane="bottomRight"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="O2" sqref="O2"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="33" customWidth="1"/>
-    <col min="3" max="248" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="3.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="33" customWidth="1"/>
+    <col min="3" max="248" width="10.875" style="32"/>
     <col min="249" max="249" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="250" max="302" width="10.83203125" style="32"/>
-    <col min="303" max="303" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="304" max="504" width="10.83203125" style="32"/>
+    <col min="250" max="302" width="10.875" style="32"/>
+    <col min="303" max="303" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="304" max="504" width="10.875" style="32"/>
     <col min="505" max="505" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="506" max="558" width="10.83203125" style="32"/>
-    <col min="559" max="559" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="560" max="760" width="10.83203125" style="32"/>
+    <col min="506" max="558" width="10.875" style="32"/>
+    <col min="559" max="559" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="560" max="760" width="10.875" style="32"/>
     <col min="761" max="761" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="762" max="814" width="10.83203125" style="32"/>
-    <col min="815" max="815" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="816" max="1016" width="10.83203125" style="32"/>
+    <col min="762" max="814" width="10.875" style="32"/>
+    <col min="815" max="815" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="816" max="1016" width="10.875" style="32"/>
     <col min="1017" max="1017" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1018" max="1070" width="10.83203125" style="32"/>
-    <col min="1071" max="1071" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="1072" max="1272" width="10.83203125" style="32"/>
+    <col min="1018" max="1070" width="10.875" style="32"/>
+    <col min="1071" max="1071" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1072" max="1272" width="10.875" style="32"/>
     <col min="1273" max="1273" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1274" max="1326" width="10.83203125" style="32"/>
-    <col min="1327" max="1327" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="1328" max="1528" width="10.83203125" style="32"/>
+    <col min="1274" max="1326" width="10.875" style="32"/>
+    <col min="1327" max="1327" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1328" max="1528" width="10.875" style="32"/>
     <col min="1529" max="1529" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1530" max="1582" width="10.83203125" style="32"/>
-    <col min="1583" max="1583" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="1584" max="1784" width="10.83203125" style="32"/>
+    <col min="1530" max="1582" width="10.875" style="32"/>
+    <col min="1583" max="1583" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1584" max="1784" width="10.875" style="32"/>
     <col min="1785" max="1785" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1786" max="1838" width="10.83203125" style="32"/>
-    <col min="1839" max="1839" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="1840" max="2040" width="10.83203125" style="32"/>
+    <col min="1786" max="1838" width="10.875" style="32"/>
+    <col min="1839" max="1839" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1840" max="2040" width="10.875" style="32"/>
     <col min="2041" max="2041" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2042" max="2094" width="10.83203125" style="32"/>
-    <col min="2095" max="2095" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2096" max="2296" width="10.83203125" style="32"/>
+    <col min="2042" max="2094" width="10.875" style="32"/>
+    <col min="2095" max="2095" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2096" max="2296" width="10.875" style="32"/>
     <col min="2297" max="2297" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2298" max="2350" width="10.83203125" style="32"/>
-    <col min="2351" max="2351" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2352" max="2552" width="10.83203125" style="32"/>
+    <col min="2298" max="2350" width="10.875" style="32"/>
+    <col min="2351" max="2351" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2352" max="2552" width="10.875" style="32"/>
     <col min="2553" max="2553" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2554" max="2606" width="10.83203125" style="32"/>
-    <col min="2607" max="2607" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2608" max="2808" width="10.83203125" style="32"/>
+    <col min="2554" max="2606" width="10.875" style="32"/>
+    <col min="2607" max="2607" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2608" max="2808" width="10.875" style="32"/>
     <col min="2809" max="2809" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2810" max="2862" width="10.83203125" style="32"/>
-    <col min="2863" max="2863" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2864" max="3064" width="10.83203125" style="32"/>
+    <col min="2810" max="2862" width="10.875" style="32"/>
+    <col min="2863" max="2863" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2864" max="3064" width="10.875" style="32"/>
     <col min="3065" max="3065" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3066" max="3118" width="10.83203125" style="32"/>
-    <col min="3119" max="3119" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3120" max="3320" width="10.83203125" style="32"/>
+    <col min="3066" max="3118" width="10.875" style="32"/>
+    <col min="3119" max="3119" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3120" max="3320" width="10.875" style="32"/>
     <col min="3321" max="3321" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3322" max="3374" width="10.83203125" style="32"/>
-    <col min="3375" max="3375" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3376" max="3576" width="10.83203125" style="32"/>
+    <col min="3322" max="3374" width="10.875" style="32"/>
+    <col min="3375" max="3375" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3376" max="3576" width="10.875" style="32"/>
     <col min="3577" max="3577" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3578" max="3630" width="10.83203125" style="32"/>
-    <col min="3631" max="3631" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3632" max="3832" width="10.83203125" style="32"/>
+    <col min="3578" max="3630" width="10.875" style="32"/>
+    <col min="3631" max="3631" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3632" max="3832" width="10.875" style="32"/>
     <col min="3833" max="3833" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3834" max="3886" width="10.83203125" style="32"/>
-    <col min="3887" max="3887" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3888" max="4088" width="10.83203125" style="32"/>
+    <col min="3834" max="3886" width="10.875" style="32"/>
+    <col min="3887" max="3887" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3888" max="4088" width="10.875" style="32"/>
     <col min="4089" max="4089" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4090" max="4142" width="10.83203125" style="32"/>
-    <col min="4143" max="4143" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4144" max="4344" width="10.83203125" style="32"/>
+    <col min="4090" max="4142" width="10.875" style="32"/>
+    <col min="4143" max="4143" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4144" max="4344" width="10.875" style="32"/>
     <col min="4345" max="4345" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4346" max="4398" width="10.83203125" style="32"/>
-    <col min="4399" max="4399" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4400" max="4600" width="10.83203125" style="32"/>
+    <col min="4346" max="4398" width="10.875" style="32"/>
+    <col min="4399" max="4399" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4400" max="4600" width="10.875" style="32"/>
     <col min="4601" max="4601" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4602" max="4654" width="10.83203125" style="32"/>
-    <col min="4655" max="4655" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4656" max="4856" width="10.83203125" style="32"/>
+    <col min="4602" max="4654" width="10.875" style="32"/>
+    <col min="4655" max="4655" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4656" max="4856" width="10.875" style="32"/>
     <col min="4857" max="4857" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4858" max="4910" width="10.83203125" style="32"/>
-    <col min="4911" max="4911" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4912" max="5112" width="10.83203125" style="32"/>
+    <col min="4858" max="4910" width="10.875" style="32"/>
+    <col min="4911" max="4911" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4912" max="5112" width="10.875" style="32"/>
     <col min="5113" max="5113" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5114" max="5166" width="10.83203125" style="32"/>
-    <col min="5167" max="5167" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5168" max="5368" width="10.83203125" style="32"/>
+    <col min="5114" max="5166" width="10.875" style="32"/>
+    <col min="5167" max="5167" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5168" max="5368" width="10.875" style="32"/>
     <col min="5369" max="5369" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5370" max="5422" width="10.83203125" style="32"/>
-    <col min="5423" max="5423" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5424" max="5624" width="10.83203125" style="32"/>
+    <col min="5370" max="5422" width="10.875" style="32"/>
+    <col min="5423" max="5423" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5424" max="5624" width="10.875" style="32"/>
     <col min="5625" max="5625" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5626" max="5678" width="10.83203125" style="32"/>
-    <col min="5679" max="5679" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5680" max="5880" width="10.83203125" style="32"/>
+    <col min="5626" max="5678" width="10.875" style="32"/>
+    <col min="5679" max="5679" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5680" max="5880" width="10.875" style="32"/>
     <col min="5881" max="5881" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5882" max="5934" width="10.83203125" style="32"/>
-    <col min="5935" max="5935" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5936" max="6136" width="10.83203125" style="32"/>
+    <col min="5882" max="5934" width="10.875" style="32"/>
+    <col min="5935" max="5935" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5936" max="6136" width="10.875" style="32"/>
     <col min="6137" max="6137" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6138" max="6190" width="10.83203125" style="32"/>
-    <col min="6191" max="6191" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6192" max="6392" width="10.83203125" style="32"/>
+    <col min="6138" max="6190" width="10.875" style="32"/>
+    <col min="6191" max="6191" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6192" max="6392" width="10.875" style="32"/>
     <col min="6393" max="6393" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6394" max="6446" width="10.83203125" style="32"/>
-    <col min="6447" max="6447" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6448" max="6648" width="10.83203125" style="32"/>
+    <col min="6394" max="6446" width="10.875" style="32"/>
+    <col min="6447" max="6447" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6448" max="6648" width="10.875" style="32"/>
     <col min="6649" max="6649" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6650" max="6702" width="10.83203125" style="32"/>
-    <col min="6703" max="6703" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6704" max="6904" width="10.83203125" style="32"/>
+    <col min="6650" max="6702" width="10.875" style="32"/>
+    <col min="6703" max="6703" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6704" max="6904" width="10.875" style="32"/>
     <col min="6905" max="6905" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6906" max="6958" width="10.83203125" style="32"/>
-    <col min="6959" max="6959" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6960" max="7160" width="10.83203125" style="32"/>
+    <col min="6906" max="6958" width="10.875" style="32"/>
+    <col min="6959" max="6959" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6960" max="7160" width="10.875" style="32"/>
     <col min="7161" max="7161" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7162" max="7214" width="10.83203125" style="32"/>
-    <col min="7215" max="7215" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7216" max="7416" width="10.83203125" style="32"/>
+    <col min="7162" max="7214" width="10.875" style="32"/>
+    <col min="7215" max="7215" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7216" max="7416" width="10.875" style="32"/>
     <col min="7417" max="7417" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7418" max="7470" width="10.83203125" style="32"/>
-    <col min="7471" max="7471" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7472" max="7672" width="10.83203125" style="32"/>
+    <col min="7418" max="7470" width="10.875" style="32"/>
+    <col min="7471" max="7471" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7472" max="7672" width="10.875" style="32"/>
     <col min="7673" max="7673" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7674" max="7726" width="10.83203125" style="32"/>
-    <col min="7727" max="7727" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7728" max="7928" width="10.83203125" style="32"/>
+    <col min="7674" max="7726" width="10.875" style="32"/>
+    <col min="7727" max="7727" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7728" max="7928" width="10.875" style="32"/>
     <col min="7929" max="7929" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7930" max="7982" width="10.83203125" style="32"/>
-    <col min="7983" max="7983" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7984" max="8184" width="10.83203125" style="32"/>
+    <col min="7930" max="7982" width="10.875" style="32"/>
+    <col min="7983" max="7983" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7984" max="8184" width="10.875" style="32"/>
     <col min="8185" max="8185" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8186" max="8238" width="10.83203125" style="32"/>
-    <col min="8239" max="8239" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="8240" max="8440" width="10.83203125" style="32"/>
+    <col min="8186" max="8238" width="10.875" style="32"/>
+    <col min="8239" max="8239" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8240" max="8440" width="10.875" style="32"/>
     <col min="8441" max="8441" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8442" max="8494" width="10.83203125" style="32"/>
-    <col min="8495" max="8495" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="8496" max="8696" width="10.83203125" style="32"/>
+    <col min="8442" max="8494" width="10.875" style="32"/>
+    <col min="8495" max="8495" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8496" max="8696" width="10.875" style="32"/>
     <col min="8697" max="8697" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8698" max="8750" width="10.83203125" style="32"/>
-    <col min="8751" max="8751" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="8752" max="8952" width="10.83203125" style="32"/>
+    <col min="8698" max="8750" width="10.875" style="32"/>
+    <col min="8751" max="8751" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8752" max="8952" width="10.875" style="32"/>
     <col min="8953" max="8953" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8954" max="9006" width="10.83203125" style="32"/>
-    <col min="9007" max="9007" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9008" max="9208" width="10.83203125" style="32"/>
+    <col min="8954" max="9006" width="10.875" style="32"/>
+    <col min="9007" max="9007" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9008" max="9208" width="10.875" style="32"/>
     <col min="9209" max="9209" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9210" max="9262" width="10.83203125" style="32"/>
-    <col min="9263" max="9263" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9264" max="9464" width="10.83203125" style="32"/>
+    <col min="9210" max="9262" width="10.875" style="32"/>
+    <col min="9263" max="9263" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9264" max="9464" width="10.875" style="32"/>
     <col min="9465" max="9465" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9466" max="9518" width="10.83203125" style="32"/>
-    <col min="9519" max="9519" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9520" max="9720" width="10.83203125" style="32"/>
+    <col min="9466" max="9518" width="10.875" style="32"/>
+    <col min="9519" max="9519" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9520" max="9720" width="10.875" style="32"/>
     <col min="9721" max="9721" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9722" max="9774" width="10.83203125" style="32"/>
-    <col min="9775" max="9775" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9776" max="9976" width="10.83203125" style="32"/>
+    <col min="9722" max="9774" width="10.875" style="32"/>
+    <col min="9775" max="9775" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9776" max="9976" width="10.875" style="32"/>
     <col min="9977" max="9977" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9978" max="10030" width="10.83203125" style="32"/>
-    <col min="10031" max="10031" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10032" max="10232" width="10.83203125" style="32"/>
+    <col min="9978" max="10030" width="10.875" style="32"/>
+    <col min="10031" max="10031" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10032" max="10232" width="10.875" style="32"/>
     <col min="10233" max="10233" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10234" max="10286" width="10.83203125" style="32"/>
-    <col min="10287" max="10287" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10288" max="10488" width="10.83203125" style="32"/>
+    <col min="10234" max="10286" width="10.875" style="32"/>
+    <col min="10287" max="10287" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10288" max="10488" width="10.875" style="32"/>
     <col min="10489" max="10489" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10490" max="10542" width="10.83203125" style="32"/>
-    <col min="10543" max="10543" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10544" max="10744" width="10.83203125" style="32"/>
+    <col min="10490" max="10542" width="10.875" style="32"/>
+    <col min="10543" max="10543" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10544" max="10744" width="10.875" style="32"/>
     <col min="10745" max="10745" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10746" max="10798" width="10.83203125" style="32"/>
-    <col min="10799" max="10799" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10800" max="11000" width="10.83203125" style="32"/>
+    <col min="10746" max="10798" width="10.875" style="32"/>
+    <col min="10799" max="10799" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10800" max="11000" width="10.875" style="32"/>
     <col min="11001" max="11001" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11002" max="11054" width="10.83203125" style="32"/>
-    <col min="11055" max="11055" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11056" max="11256" width="10.83203125" style="32"/>
+    <col min="11002" max="11054" width="10.875" style="32"/>
+    <col min="11055" max="11055" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11056" max="11256" width="10.875" style="32"/>
     <col min="11257" max="11257" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11258" max="11310" width="10.83203125" style="32"/>
-    <col min="11311" max="11311" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11312" max="11512" width="10.83203125" style="32"/>
+    <col min="11258" max="11310" width="10.875" style="32"/>
+    <col min="11311" max="11311" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11312" max="11512" width="10.875" style="32"/>
     <col min="11513" max="11513" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11514" max="11566" width="10.83203125" style="32"/>
-    <col min="11567" max="11567" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11568" max="11768" width="10.83203125" style="32"/>
+    <col min="11514" max="11566" width="10.875" style="32"/>
+    <col min="11567" max="11567" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11568" max="11768" width="10.875" style="32"/>
     <col min="11769" max="11769" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11770" max="11822" width="10.83203125" style="32"/>
-    <col min="11823" max="11823" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11824" max="12024" width="10.83203125" style="32"/>
+    <col min="11770" max="11822" width="10.875" style="32"/>
+    <col min="11823" max="11823" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11824" max="12024" width="10.875" style="32"/>
     <col min="12025" max="12025" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12026" max="12078" width="10.83203125" style="32"/>
-    <col min="12079" max="12079" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12080" max="12280" width="10.83203125" style="32"/>
+    <col min="12026" max="12078" width="10.875" style="32"/>
+    <col min="12079" max="12079" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12080" max="12280" width="10.875" style="32"/>
     <col min="12281" max="12281" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12282" max="12334" width="10.83203125" style="32"/>
-    <col min="12335" max="12335" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12336" max="12536" width="10.83203125" style="32"/>
+    <col min="12282" max="12334" width="10.875" style="32"/>
+    <col min="12335" max="12335" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12336" max="12536" width="10.875" style="32"/>
     <col min="12537" max="12537" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12538" max="12590" width="10.83203125" style="32"/>
-    <col min="12591" max="12591" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12592" max="12792" width="10.83203125" style="32"/>
+    <col min="12538" max="12590" width="10.875" style="32"/>
+    <col min="12591" max="12591" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12592" max="12792" width="10.875" style="32"/>
     <col min="12793" max="12793" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12794" max="12846" width="10.83203125" style="32"/>
-    <col min="12847" max="12847" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12848" max="13048" width="10.83203125" style="32"/>
+    <col min="12794" max="12846" width="10.875" style="32"/>
+    <col min="12847" max="12847" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12848" max="13048" width="10.875" style="32"/>
     <col min="13049" max="13049" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13050" max="13102" width="10.83203125" style="32"/>
-    <col min="13103" max="13103" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13104" max="13304" width="10.83203125" style="32"/>
+    <col min="13050" max="13102" width="10.875" style="32"/>
+    <col min="13103" max="13103" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13104" max="13304" width="10.875" style="32"/>
     <col min="13305" max="13305" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13306" max="13358" width="10.83203125" style="32"/>
-    <col min="13359" max="13359" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13360" max="13560" width="10.83203125" style="32"/>
+    <col min="13306" max="13358" width="10.875" style="32"/>
+    <col min="13359" max="13359" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13360" max="13560" width="10.875" style="32"/>
     <col min="13561" max="13561" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13562" max="13614" width="10.83203125" style="32"/>
-    <col min="13615" max="13615" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13616" max="13816" width="10.83203125" style="32"/>
+    <col min="13562" max="13614" width="10.875" style="32"/>
+    <col min="13615" max="13615" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13616" max="13816" width="10.875" style="32"/>
     <col min="13817" max="13817" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13818" max="13870" width="10.83203125" style="32"/>
-    <col min="13871" max="13871" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13872" max="14072" width="10.83203125" style="32"/>
+    <col min="13818" max="13870" width="10.875" style="32"/>
+    <col min="13871" max="13871" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13872" max="14072" width="10.875" style="32"/>
     <col min="14073" max="14073" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14074" max="14126" width="10.83203125" style="32"/>
-    <col min="14127" max="14127" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14128" max="14328" width="10.83203125" style="32"/>
+    <col min="14074" max="14126" width="10.875" style="32"/>
+    <col min="14127" max="14127" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14128" max="14328" width="10.875" style="32"/>
     <col min="14329" max="14329" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14330" max="14382" width="10.83203125" style="32"/>
-    <col min="14383" max="14383" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14384" max="14584" width="10.83203125" style="32"/>
+    <col min="14330" max="14382" width="10.875" style="32"/>
+    <col min="14383" max="14383" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14384" max="14584" width="10.875" style="32"/>
     <col min="14585" max="14585" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14586" max="14638" width="10.83203125" style="32"/>
-    <col min="14639" max="14639" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14640" max="14840" width="10.83203125" style="32"/>
+    <col min="14586" max="14638" width="10.875" style="32"/>
+    <col min="14639" max="14639" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14640" max="14840" width="10.875" style="32"/>
     <col min="14841" max="14841" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14842" max="14894" width="10.83203125" style="32"/>
-    <col min="14895" max="14895" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14896" max="15096" width="10.83203125" style="32"/>
+    <col min="14842" max="14894" width="10.875" style="32"/>
+    <col min="14895" max="14895" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14896" max="15096" width="10.875" style="32"/>
     <col min="15097" max="15097" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15098" max="15150" width="10.83203125" style="32"/>
-    <col min="15151" max="15151" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15152" max="15352" width="10.83203125" style="32"/>
+    <col min="15098" max="15150" width="10.875" style="32"/>
+    <col min="15151" max="15151" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15152" max="15352" width="10.875" style="32"/>
     <col min="15353" max="15353" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15354" max="15406" width="10.83203125" style="32"/>
-    <col min="15407" max="15407" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15408" max="15608" width="10.83203125" style="32"/>
+    <col min="15354" max="15406" width="10.875" style="32"/>
+    <col min="15407" max="15407" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15408" max="15608" width="10.875" style="32"/>
     <col min="15609" max="15609" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15610" max="15662" width="10.83203125" style="32"/>
-    <col min="15663" max="15663" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15664" max="15864" width="10.83203125" style="32"/>
+    <col min="15610" max="15662" width="10.875" style="32"/>
+    <col min="15663" max="15663" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15664" max="15864" width="10.875" style="32"/>
     <col min="15865" max="15865" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15866" max="15918" width="10.83203125" style="32"/>
-    <col min="15919" max="15919" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15920" max="16120" width="10.83203125" style="32"/>
+    <col min="15866" max="15918" width="10.875" style="32"/>
+    <col min="15919" max="15919" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15920" max="16120" width="10.875" style="32"/>
     <col min="16121" max="16121" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="16122" max="16174" width="10.83203125" style="32"/>
-    <col min="16175" max="16175" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="16176" max="16384" width="10.83203125" style="32"/>
+    <col min="16122" max="16174" width="10.875" style="32"/>
+    <col min="16175" max="16175" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="16176" max="16384" width="10.875" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
@@ -3954,7 +3957,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="31">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="F17" s="31">
         <v>29</v>
@@ -7750,270 +7753,270 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV42"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="AH101" sqref="AH101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="33" customWidth="1"/>
-    <col min="3" max="248" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="3.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="33" customWidth="1"/>
+    <col min="3" max="248" width="10.875" style="32"/>
     <col min="249" max="249" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="250" max="302" width="10.83203125" style="32"/>
-    <col min="303" max="303" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="304" max="504" width="10.83203125" style="32"/>
+    <col min="250" max="302" width="10.875" style="32"/>
+    <col min="303" max="303" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="304" max="504" width="10.875" style="32"/>
     <col min="505" max="505" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="506" max="558" width="10.83203125" style="32"/>
-    <col min="559" max="559" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="560" max="760" width="10.83203125" style="32"/>
+    <col min="506" max="558" width="10.875" style="32"/>
+    <col min="559" max="559" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="560" max="760" width="10.875" style="32"/>
     <col min="761" max="761" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="762" max="814" width="10.83203125" style="32"/>
-    <col min="815" max="815" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="816" max="1016" width="10.83203125" style="32"/>
+    <col min="762" max="814" width="10.875" style="32"/>
+    <col min="815" max="815" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="816" max="1016" width="10.875" style="32"/>
     <col min="1017" max="1017" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1018" max="1070" width="10.83203125" style="32"/>
-    <col min="1071" max="1071" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="1072" max="1272" width="10.83203125" style="32"/>
+    <col min="1018" max="1070" width="10.875" style="32"/>
+    <col min="1071" max="1071" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1072" max="1272" width="10.875" style="32"/>
     <col min="1273" max="1273" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1274" max="1326" width="10.83203125" style="32"/>
-    <col min="1327" max="1327" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="1328" max="1528" width="10.83203125" style="32"/>
+    <col min="1274" max="1326" width="10.875" style="32"/>
+    <col min="1327" max="1327" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1328" max="1528" width="10.875" style="32"/>
     <col min="1529" max="1529" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1530" max="1582" width="10.83203125" style="32"/>
-    <col min="1583" max="1583" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="1584" max="1784" width="10.83203125" style="32"/>
+    <col min="1530" max="1582" width="10.875" style="32"/>
+    <col min="1583" max="1583" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1584" max="1784" width="10.875" style="32"/>
     <col min="1785" max="1785" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="1786" max="1838" width="10.83203125" style="32"/>
-    <col min="1839" max="1839" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="1840" max="2040" width="10.83203125" style="32"/>
+    <col min="1786" max="1838" width="10.875" style="32"/>
+    <col min="1839" max="1839" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1840" max="2040" width="10.875" style="32"/>
     <col min="2041" max="2041" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2042" max="2094" width="10.83203125" style="32"/>
-    <col min="2095" max="2095" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2096" max="2296" width="10.83203125" style="32"/>
+    <col min="2042" max="2094" width="10.875" style="32"/>
+    <col min="2095" max="2095" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2096" max="2296" width="10.875" style="32"/>
     <col min="2297" max="2297" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2298" max="2350" width="10.83203125" style="32"/>
-    <col min="2351" max="2351" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2352" max="2552" width="10.83203125" style="32"/>
+    <col min="2298" max="2350" width="10.875" style="32"/>
+    <col min="2351" max="2351" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2352" max="2552" width="10.875" style="32"/>
     <col min="2553" max="2553" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2554" max="2606" width="10.83203125" style="32"/>
-    <col min="2607" max="2607" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2608" max="2808" width="10.83203125" style="32"/>
+    <col min="2554" max="2606" width="10.875" style="32"/>
+    <col min="2607" max="2607" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2608" max="2808" width="10.875" style="32"/>
     <col min="2809" max="2809" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2810" max="2862" width="10.83203125" style="32"/>
-    <col min="2863" max="2863" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2864" max="3064" width="10.83203125" style="32"/>
+    <col min="2810" max="2862" width="10.875" style="32"/>
+    <col min="2863" max="2863" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2864" max="3064" width="10.875" style="32"/>
     <col min="3065" max="3065" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3066" max="3118" width="10.83203125" style="32"/>
-    <col min="3119" max="3119" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3120" max="3320" width="10.83203125" style="32"/>
+    <col min="3066" max="3118" width="10.875" style="32"/>
+    <col min="3119" max="3119" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3120" max="3320" width="10.875" style="32"/>
     <col min="3321" max="3321" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3322" max="3374" width="10.83203125" style="32"/>
-    <col min="3375" max="3375" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3376" max="3576" width="10.83203125" style="32"/>
+    <col min="3322" max="3374" width="10.875" style="32"/>
+    <col min="3375" max="3375" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3376" max="3576" width="10.875" style="32"/>
     <col min="3577" max="3577" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3578" max="3630" width="10.83203125" style="32"/>
-    <col min="3631" max="3631" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3632" max="3832" width="10.83203125" style="32"/>
+    <col min="3578" max="3630" width="10.875" style="32"/>
+    <col min="3631" max="3631" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3632" max="3832" width="10.875" style="32"/>
     <col min="3833" max="3833" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3834" max="3886" width="10.83203125" style="32"/>
-    <col min="3887" max="3887" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3888" max="4088" width="10.83203125" style="32"/>
+    <col min="3834" max="3886" width="10.875" style="32"/>
+    <col min="3887" max="3887" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3888" max="4088" width="10.875" style="32"/>
     <col min="4089" max="4089" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4090" max="4142" width="10.83203125" style="32"/>
-    <col min="4143" max="4143" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4144" max="4344" width="10.83203125" style="32"/>
+    <col min="4090" max="4142" width="10.875" style="32"/>
+    <col min="4143" max="4143" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4144" max="4344" width="10.875" style="32"/>
     <col min="4345" max="4345" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4346" max="4398" width="10.83203125" style="32"/>
-    <col min="4399" max="4399" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4400" max="4600" width="10.83203125" style="32"/>
+    <col min="4346" max="4398" width="10.875" style="32"/>
+    <col min="4399" max="4399" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4400" max="4600" width="10.875" style="32"/>
     <col min="4601" max="4601" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4602" max="4654" width="10.83203125" style="32"/>
-    <col min="4655" max="4655" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4656" max="4856" width="10.83203125" style="32"/>
+    <col min="4602" max="4654" width="10.875" style="32"/>
+    <col min="4655" max="4655" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4656" max="4856" width="10.875" style="32"/>
     <col min="4857" max="4857" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4858" max="4910" width="10.83203125" style="32"/>
-    <col min="4911" max="4911" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4912" max="5112" width="10.83203125" style="32"/>
+    <col min="4858" max="4910" width="10.875" style="32"/>
+    <col min="4911" max="4911" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4912" max="5112" width="10.875" style="32"/>
     <col min="5113" max="5113" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5114" max="5166" width="10.83203125" style="32"/>
-    <col min="5167" max="5167" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5168" max="5368" width="10.83203125" style="32"/>
+    <col min="5114" max="5166" width="10.875" style="32"/>
+    <col min="5167" max="5167" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5168" max="5368" width="10.875" style="32"/>
     <col min="5369" max="5369" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5370" max="5422" width="10.83203125" style="32"/>
-    <col min="5423" max="5423" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5424" max="5624" width="10.83203125" style="32"/>
+    <col min="5370" max="5422" width="10.875" style="32"/>
+    <col min="5423" max="5423" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5424" max="5624" width="10.875" style="32"/>
     <col min="5625" max="5625" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5626" max="5678" width="10.83203125" style="32"/>
-    <col min="5679" max="5679" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5680" max="5880" width="10.83203125" style="32"/>
+    <col min="5626" max="5678" width="10.875" style="32"/>
+    <col min="5679" max="5679" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5680" max="5880" width="10.875" style="32"/>
     <col min="5881" max="5881" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5882" max="5934" width="10.83203125" style="32"/>
-    <col min="5935" max="5935" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5936" max="6136" width="10.83203125" style="32"/>
+    <col min="5882" max="5934" width="10.875" style="32"/>
+    <col min="5935" max="5935" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5936" max="6136" width="10.875" style="32"/>
     <col min="6137" max="6137" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6138" max="6190" width="10.83203125" style="32"/>
-    <col min="6191" max="6191" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6192" max="6392" width="10.83203125" style="32"/>
+    <col min="6138" max="6190" width="10.875" style="32"/>
+    <col min="6191" max="6191" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6192" max="6392" width="10.875" style="32"/>
     <col min="6393" max="6393" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6394" max="6446" width="10.83203125" style="32"/>
-    <col min="6447" max="6447" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6448" max="6648" width="10.83203125" style="32"/>
+    <col min="6394" max="6446" width="10.875" style="32"/>
+    <col min="6447" max="6447" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6448" max="6648" width="10.875" style="32"/>
     <col min="6649" max="6649" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6650" max="6702" width="10.83203125" style="32"/>
-    <col min="6703" max="6703" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6704" max="6904" width="10.83203125" style="32"/>
+    <col min="6650" max="6702" width="10.875" style="32"/>
+    <col min="6703" max="6703" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6704" max="6904" width="10.875" style="32"/>
     <col min="6905" max="6905" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6906" max="6958" width="10.83203125" style="32"/>
-    <col min="6959" max="6959" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6960" max="7160" width="10.83203125" style="32"/>
+    <col min="6906" max="6958" width="10.875" style="32"/>
+    <col min="6959" max="6959" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6960" max="7160" width="10.875" style="32"/>
     <col min="7161" max="7161" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7162" max="7214" width="10.83203125" style="32"/>
-    <col min="7215" max="7215" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7216" max="7416" width="10.83203125" style="32"/>
+    <col min="7162" max="7214" width="10.875" style="32"/>
+    <col min="7215" max="7215" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7216" max="7416" width="10.875" style="32"/>
     <col min="7417" max="7417" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7418" max="7470" width="10.83203125" style="32"/>
-    <col min="7471" max="7471" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7472" max="7672" width="10.83203125" style="32"/>
+    <col min="7418" max="7470" width="10.875" style="32"/>
+    <col min="7471" max="7471" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7472" max="7672" width="10.875" style="32"/>
     <col min="7673" max="7673" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7674" max="7726" width="10.83203125" style="32"/>
-    <col min="7727" max="7727" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7728" max="7928" width="10.83203125" style="32"/>
+    <col min="7674" max="7726" width="10.875" style="32"/>
+    <col min="7727" max="7727" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7728" max="7928" width="10.875" style="32"/>
     <col min="7929" max="7929" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="7930" max="7982" width="10.83203125" style="32"/>
-    <col min="7983" max="7983" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7984" max="8184" width="10.83203125" style="32"/>
+    <col min="7930" max="7982" width="10.875" style="32"/>
+    <col min="7983" max="7983" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7984" max="8184" width="10.875" style="32"/>
     <col min="8185" max="8185" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8186" max="8238" width="10.83203125" style="32"/>
-    <col min="8239" max="8239" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="8240" max="8440" width="10.83203125" style="32"/>
+    <col min="8186" max="8238" width="10.875" style="32"/>
+    <col min="8239" max="8239" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8240" max="8440" width="10.875" style="32"/>
     <col min="8441" max="8441" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8442" max="8494" width="10.83203125" style="32"/>
-    <col min="8495" max="8495" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="8496" max="8696" width="10.83203125" style="32"/>
+    <col min="8442" max="8494" width="10.875" style="32"/>
+    <col min="8495" max="8495" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8496" max="8696" width="10.875" style="32"/>
     <col min="8697" max="8697" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8698" max="8750" width="10.83203125" style="32"/>
-    <col min="8751" max="8751" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="8752" max="8952" width="10.83203125" style="32"/>
+    <col min="8698" max="8750" width="10.875" style="32"/>
+    <col min="8751" max="8751" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8752" max="8952" width="10.875" style="32"/>
     <col min="8953" max="8953" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="8954" max="9006" width="10.83203125" style="32"/>
-    <col min="9007" max="9007" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9008" max="9208" width="10.83203125" style="32"/>
+    <col min="8954" max="9006" width="10.875" style="32"/>
+    <col min="9007" max="9007" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9008" max="9208" width="10.875" style="32"/>
     <col min="9209" max="9209" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9210" max="9262" width="10.83203125" style="32"/>
-    <col min="9263" max="9263" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9264" max="9464" width="10.83203125" style="32"/>
+    <col min="9210" max="9262" width="10.875" style="32"/>
+    <col min="9263" max="9263" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9264" max="9464" width="10.875" style="32"/>
     <col min="9465" max="9465" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9466" max="9518" width="10.83203125" style="32"/>
-    <col min="9519" max="9519" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9520" max="9720" width="10.83203125" style="32"/>
+    <col min="9466" max="9518" width="10.875" style="32"/>
+    <col min="9519" max="9519" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9520" max="9720" width="10.875" style="32"/>
     <col min="9721" max="9721" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9722" max="9774" width="10.83203125" style="32"/>
-    <col min="9775" max="9775" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9776" max="9976" width="10.83203125" style="32"/>
+    <col min="9722" max="9774" width="10.875" style="32"/>
+    <col min="9775" max="9775" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9776" max="9976" width="10.875" style="32"/>
     <col min="9977" max="9977" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9978" max="10030" width="10.83203125" style="32"/>
-    <col min="10031" max="10031" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10032" max="10232" width="10.83203125" style="32"/>
+    <col min="9978" max="10030" width="10.875" style="32"/>
+    <col min="10031" max="10031" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10032" max="10232" width="10.875" style="32"/>
     <col min="10233" max="10233" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10234" max="10286" width="10.83203125" style="32"/>
-    <col min="10287" max="10287" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10288" max="10488" width="10.83203125" style="32"/>
+    <col min="10234" max="10286" width="10.875" style="32"/>
+    <col min="10287" max="10287" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10288" max="10488" width="10.875" style="32"/>
     <col min="10489" max="10489" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10490" max="10542" width="10.83203125" style="32"/>
-    <col min="10543" max="10543" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10544" max="10744" width="10.83203125" style="32"/>
+    <col min="10490" max="10542" width="10.875" style="32"/>
+    <col min="10543" max="10543" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10544" max="10744" width="10.875" style="32"/>
     <col min="10745" max="10745" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10746" max="10798" width="10.83203125" style="32"/>
-    <col min="10799" max="10799" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="10800" max="11000" width="10.83203125" style="32"/>
+    <col min="10746" max="10798" width="10.875" style="32"/>
+    <col min="10799" max="10799" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10800" max="11000" width="10.875" style="32"/>
     <col min="11001" max="11001" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11002" max="11054" width="10.83203125" style="32"/>
-    <col min="11055" max="11055" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11056" max="11256" width="10.83203125" style="32"/>
+    <col min="11002" max="11054" width="10.875" style="32"/>
+    <col min="11055" max="11055" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11056" max="11256" width="10.875" style="32"/>
     <col min="11257" max="11257" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11258" max="11310" width="10.83203125" style="32"/>
-    <col min="11311" max="11311" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11312" max="11512" width="10.83203125" style="32"/>
+    <col min="11258" max="11310" width="10.875" style="32"/>
+    <col min="11311" max="11311" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11312" max="11512" width="10.875" style="32"/>
     <col min="11513" max="11513" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11514" max="11566" width="10.83203125" style="32"/>
-    <col min="11567" max="11567" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11568" max="11768" width="10.83203125" style="32"/>
+    <col min="11514" max="11566" width="10.875" style="32"/>
+    <col min="11567" max="11567" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11568" max="11768" width="10.875" style="32"/>
     <col min="11769" max="11769" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11770" max="11822" width="10.83203125" style="32"/>
-    <col min="11823" max="11823" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11824" max="12024" width="10.83203125" style="32"/>
+    <col min="11770" max="11822" width="10.875" style="32"/>
+    <col min="11823" max="11823" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11824" max="12024" width="10.875" style="32"/>
     <col min="12025" max="12025" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12026" max="12078" width="10.83203125" style="32"/>
-    <col min="12079" max="12079" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12080" max="12280" width="10.83203125" style="32"/>
+    <col min="12026" max="12078" width="10.875" style="32"/>
+    <col min="12079" max="12079" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12080" max="12280" width="10.875" style="32"/>
     <col min="12281" max="12281" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12282" max="12334" width="10.83203125" style="32"/>
-    <col min="12335" max="12335" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12336" max="12536" width="10.83203125" style="32"/>
+    <col min="12282" max="12334" width="10.875" style="32"/>
+    <col min="12335" max="12335" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12336" max="12536" width="10.875" style="32"/>
     <col min="12537" max="12537" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12538" max="12590" width="10.83203125" style="32"/>
-    <col min="12591" max="12591" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12592" max="12792" width="10.83203125" style="32"/>
+    <col min="12538" max="12590" width="10.875" style="32"/>
+    <col min="12591" max="12591" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12592" max="12792" width="10.875" style="32"/>
     <col min="12793" max="12793" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12794" max="12846" width="10.83203125" style="32"/>
-    <col min="12847" max="12847" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12848" max="13048" width="10.83203125" style="32"/>
+    <col min="12794" max="12846" width="10.875" style="32"/>
+    <col min="12847" max="12847" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12848" max="13048" width="10.875" style="32"/>
     <col min="13049" max="13049" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13050" max="13102" width="10.83203125" style="32"/>
-    <col min="13103" max="13103" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13104" max="13304" width="10.83203125" style="32"/>
+    <col min="13050" max="13102" width="10.875" style="32"/>
+    <col min="13103" max="13103" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13104" max="13304" width="10.875" style="32"/>
     <col min="13305" max="13305" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13306" max="13358" width="10.83203125" style="32"/>
-    <col min="13359" max="13359" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13360" max="13560" width="10.83203125" style="32"/>
+    <col min="13306" max="13358" width="10.875" style="32"/>
+    <col min="13359" max="13359" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13360" max="13560" width="10.875" style="32"/>
     <col min="13561" max="13561" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13562" max="13614" width="10.83203125" style="32"/>
-    <col min="13615" max="13615" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13616" max="13816" width="10.83203125" style="32"/>
+    <col min="13562" max="13614" width="10.875" style="32"/>
+    <col min="13615" max="13615" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13616" max="13816" width="10.875" style="32"/>
     <col min="13817" max="13817" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="13818" max="13870" width="10.83203125" style="32"/>
-    <col min="13871" max="13871" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13872" max="14072" width="10.83203125" style="32"/>
+    <col min="13818" max="13870" width="10.875" style="32"/>
+    <col min="13871" max="13871" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13872" max="14072" width="10.875" style="32"/>
     <col min="14073" max="14073" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14074" max="14126" width="10.83203125" style="32"/>
-    <col min="14127" max="14127" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14128" max="14328" width="10.83203125" style="32"/>
+    <col min="14074" max="14126" width="10.875" style="32"/>
+    <col min="14127" max="14127" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14128" max="14328" width="10.875" style="32"/>
     <col min="14329" max="14329" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14330" max="14382" width="10.83203125" style="32"/>
-    <col min="14383" max="14383" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14384" max="14584" width="10.83203125" style="32"/>
+    <col min="14330" max="14382" width="10.875" style="32"/>
+    <col min="14383" max="14383" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14384" max="14584" width="10.875" style="32"/>
     <col min="14585" max="14585" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14586" max="14638" width="10.83203125" style="32"/>
-    <col min="14639" max="14639" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14640" max="14840" width="10.83203125" style="32"/>
+    <col min="14586" max="14638" width="10.875" style="32"/>
+    <col min="14639" max="14639" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14640" max="14840" width="10.875" style="32"/>
     <col min="14841" max="14841" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14842" max="14894" width="10.83203125" style="32"/>
-    <col min="14895" max="14895" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14896" max="15096" width="10.83203125" style="32"/>
+    <col min="14842" max="14894" width="10.875" style="32"/>
+    <col min="14895" max="14895" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14896" max="15096" width="10.875" style="32"/>
     <col min="15097" max="15097" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15098" max="15150" width="10.83203125" style="32"/>
-    <col min="15151" max="15151" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15152" max="15352" width="10.83203125" style="32"/>
+    <col min="15098" max="15150" width="10.875" style="32"/>
+    <col min="15151" max="15151" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15152" max="15352" width="10.875" style="32"/>
     <col min="15353" max="15353" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15354" max="15406" width="10.83203125" style="32"/>
-    <col min="15407" max="15407" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15408" max="15608" width="10.83203125" style="32"/>
+    <col min="15354" max="15406" width="10.875" style="32"/>
+    <col min="15407" max="15407" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15408" max="15608" width="10.875" style="32"/>
     <col min="15609" max="15609" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15610" max="15662" width="10.83203125" style="32"/>
-    <col min="15663" max="15663" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15664" max="15864" width="10.83203125" style="32"/>
+    <col min="15610" max="15662" width="10.875" style="32"/>
+    <col min="15663" max="15663" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15664" max="15864" width="10.875" style="32"/>
     <col min="15865" max="15865" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="15866" max="15918" width="10.83203125" style="32"/>
-    <col min="15919" max="15919" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15920" max="16120" width="10.83203125" style="32"/>
+    <col min="15866" max="15918" width="10.875" style="32"/>
+    <col min="15919" max="15919" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15920" max="16120" width="10.875" style="32"/>
     <col min="16121" max="16121" width="35.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="16122" max="16174" width="10.83203125" style="32"/>
-    <col min="16175" max="16175" width="10.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="16176" max="16384" width="10.83203125" style="32"/>
+    <col min="16122" max="16174" width="10.875" style="32"/>
+    <col min="16175" max="16175" width="10.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="16176" max="16384" width="10.875" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="30" customFormat="1" ht="69" customHeight="1">
@@ -10701,21 +10704,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="3.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="4.375" customWidth="1"/>
     <col min="28" max="28" width="5" customWidth="1"/>
-    <col min="29" max="29" width="4.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="29" max="29" width="4.375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4.375" customWidth="1"/>
     <col min="31" max="31" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10804,6 +10807,9 @@
       <c r="AD1">
         <v>27</v>
       </c>
+      <c r="AE1">
+        <v>28</v>
+      </c>
       <c r="AF1" t="s">
         <v>36</v>
       </c>
@@ -10897,6 +10903,9 @@
       <c r="AD2" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="AE2" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="AF2" s="3" t="s">
         <v>29</v>
       </c>
@@ -10995,6 +11004,9 @@
       <c r="AD3">
         <v>0</v>
       </c>
+      <c r="AE3">
+        <v>508</v>
+      </c>
       <c r="AF3" t="s">
         <v>30</v>
       </c>
@@ -11093,6 +11105,9 @@
       <c r="AD4">
         <v>100</v>
       </c>
+      <c r="AE4">
+        <v>508</v>
+      </c>
       <c r="AF4" t="s">
         <v>37</v>
       </c>
@@ -11191,6 +11206,9 @@
       <c r="AD5">
         <v>101</v>
       </c>
+      <c r="AE5">
+        <v>508</v>
+      </c>
       <c r="AF5" t="s">
         <v>38</v>
       </c>
@@ -11289,6 +11307,9 @@
       <c r="AD6">
         <v>102</v>
       </c>
+      <c r="AE6">
+        <v>508</v>
+      </c>
       <c r="AF6" t="s">
         <v>39</v>
       </c>
@@ -11387,6 +11408,9 @@
       <c r="AD7">
         <v>500</v>
       </c>
+      <c r="AE7">
+        <v>508</v>
+      </c>
       <c r="AF7" t="s">
         <v>40</v>
       </c>
@@ -11485,6 +11509,9 @@
       <c r="AD8">
         <v>103</v>
       </c>
+      <c r="AE8">
+        <v>508</v>
+      </c>
       <c r="AF8" t="s">
         <v>41</v>
       </c>
@@ -11583,6 +11610,9 @@
       <c r="AD9">
         <v>501</v>
       </c>
+      <c r="AE9">
+        <v>508</v>
+      </c>
       <c r="AF9" t="s">
         <v>42</v>
       </c>
@@ -11681,6 +11711,9 @@
       <c r="AD10">
         <v>502</v>
       </c>
+      <c r="AE10">
+        <v>508</v>
+      </c>
       <c r="AF10" t="s">
         <v>43</v>
       </c>
@@ -11779,6 +11812,9 @@
       <c r="AD11">
         <v>104</v>
       </c>
+      <c r="AE11">
+        <v>508</v>
+      </c>
       <c r="AF11" t="s">
         <v>44</v>
       </c>
@@ -11877,6 +11913,9 @@
       <c r="AD12">
         <v>109</v>
       </c>
+      <c r="AE12">
+        <v>508</v>
+      </c>
       <c r="AF12" t="s">
         <v>45</v>
       </c>
@@ -11975,6 +12014,9 @@
       <c r="AD13">
         <v>111</v>
       </c>
+      <c r="AE13">
+        <v>508</v>
+      </c>
       <c r="AF13" t="s">
         <v>46</v>
       </c>
@@ -12073,6 +12115,9 @@
       <c r="AD14">
         <v>113</v>
       </c>
+      <c r="AE14">
+        <v>508</v>
+      </c>
       <c r="AF14" t="s">
         <v>47</v>
       </c>
@@ -12171,6 +12216,9 @@
       <c r="AD15">
         <v>115</v>
       </c>
+      <c r="AE15">
+        <v>508</v>
+      </c>
       <c r="AF15" t="s">
         <v>48</v>
       </c>
@@ -12269,6 +12317,9 @@
       <c r="AD16">
         <v>503</v>
       </c>
+      <c r="AE16">
+        <v>508</v>
+      </c>
       <c r="AF16" t="s">
         <v>49</v>
       </c>
@@ -12367,6 +12418,9 @@
       <c r="AD17">
         <v>504</v>
       </c>
+      <c r="AE17">
+        <v>508</v>
+      </c>
       <c r="AF17" t="s">
         <v>50</v>
       </c>
@@ -12465,6 +12519,9 @@
       <c r="AD18">
         <v>16</v>
       </c>
+      <c r="AE18">
+        <v>508</v>
+      </c>
       <c r="AF18" t="s">
         <v>31</v>
       </c>
@@ -12563,6 +12620,9 @@
       <c r="AD19">
         <v>507</v>
       </c>
+      <c r="AE19">
+        <v>508</v>
+      </c>
       <c r="AF19" t="s">
         <v>32</v>
       </c>
@@ -12661,6 +12721,9 @@
       <c r="AD20">
         <v>17</v>
       </c>
+      <c r="AE20">
+        <v>17</v>
+      </c>
       <c r="AF20" t="s">
         <v>19</v>
       </c>
@@ -12759,6 +12822,9 @@
       <c r="AD21">
         <v>107</v>
       </c>
+      <c r="AE21">
+        <v>508</v>
+      </c>
       <c r="AF21" t="s">
         <v>20</v>
       </c>
@@ -12857,6 +12923,9 @@
       <c r="AD22">
         <v>19</v>
       </c>
+      <c r="AE22">
+        <v>508</v>
+      </c>
       <c r="AF22" t="s">
         <v>17</v>
       </c>
@@ -13047,7 +13116,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13057,25 +13126,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="30" width="4.6640625" customWidth="1"/>
-    <col min="31" max="31" width="9.1640625" customWidth="1"/>
-    <col min="32" max="33" width="5.83203125" customWidth="1"/>
-    <col min="34" max="34" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="30" width="4.625" customWidth="1"/>
+    <col min="31" max="31" width="9.125" customWidth="1"/>
+    <col min="32" max="33" width="5.875" customWidth="1"/>
+    <col min="34" max="34" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="6" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -16963,19 +17032,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="29" width="4.6640625" customWidth="1"/>
-    <col min="30" max="30" width="9.1640625" customWidth="1"/>
-    <col min="31" max="31" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="29" width="4.625" customWidth="1"/>
+    <col min="30" max="30" width="9.125" customWidth="1"/>
+    <col min="31" max="31" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -18547,14 +18616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
@@ -18622,18 +18691,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" customWidth="1"/>
+    <col min="3" max="3" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
